--- a/console/Networking/launchExcel/list.xlsx
+++ b/console/Networking/launchExcel/list.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/launchExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F30223-6E57-CA47-B562-A80B2DDAE856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -613,9 +619,6 @@
     <t>Estimated Cost</t>
   </si>
   <si>
-    <t>Associated Availability Group</t>
-  </si>
-  <si>
     <t>Creation Time</t>
   </si>
   <si>
@@ -635,14 +638,18 @@
   </si>
   <si>
     <t>No Instance Template Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associated an Availability Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1031,22 +1038,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="38">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="34">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="38">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="19">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1145,7 +1152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="19">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="19">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1167,7 +1174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1178,7 +1185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="19">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="19">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1200,7 +1207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="19">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="19">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1219,10 +1226,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1230,10 +1237,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1241,10 +1248,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1252,10 +1259,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1263,10 +1270,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1274,10 +1281,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1285,10 +1292,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1296,7 +1303,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
